--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>fireball</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>小狼</t>
+  </si>
+  <si>
+    <t>山精</t>
+  </si>
+  <si>
+    <t>骷髅王</t>
   </si>
 </sst>
 </file>
@@ -139,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -149,6 +161,119 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,101 +285,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,31 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,50 +552,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +586,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,13 +1121,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
@@ -1288,10 +1300,10 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1311,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1320,16 +1332,144 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/RoleConfig.xlsx
+++ b/excel2json/excel/RoleConfig.xlsx
@@ -165,7 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,8 +178,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,63 +271,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,62 +293,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -318,6 +313,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +522,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,13 +572,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,39 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,13 +1317,13 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -1448,13 +1448,13 @@
         <v>31</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>20</v>
